--- a/data/pca/factorExposure/factorExposure_2016-04-12.xlsx
+++ b/data/pca/factorExposure/factorExposure_2016-04-12.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,15 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +698,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,52 +714,88 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>-0.01128063277147465</v>
+        <v>0.01574505613723748</v>
       </c>
       <c r="C2">
-        <v>0.05179547770464567</v>
+        <v>0.03844985644582838</v>
       </c>
       <c r="D2">
-        <v>-0.04383624704241501</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.0641326303358634</v>
+      </c>
+      <c r="E2">
+        <v>0.09578842160744554</v>
+      </c>
+      <c r="F2">
+        <v>0.08639846105570299</v>
+      </c>
+      <c r="G2">
+        <v>-0.02240640443442458</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>-0.04116491068079393</v>
+        <v>0.02547462773069211</v>
       </c>
       <c r="C3">
-        <v>0.119693507742253</v>
+        <v>0.06598831043023952</v>
       </c>
       <c r="D3">
-        <v>-0.08723777358893282</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>-0.0728462513580851</v>
+      </c>
+      <c r="E3">
+        <v>0.07100697738274442</v>
+      </c>
+      <c r="F3">
+        <v>-0.02096021352772809</v>
+      </c>
+      <c r="G3">
+        <v>-0.05012828095636532</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>-0.06413682852564415</v>
+        <v>0.06076929152239859</v>
       </c>
       <c r="C4">
-        <v>0.06196919735250458</v>
+        <v>0.06240259513773987</v>
       </c>
       <c r="D4">
-        <v>-0.02712489999437279</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.05485947269349913</v>
+      </c>
+      <c r="E4">
+        <v>0.08765835414666573</v>
+      </c>
+      <c r="F4">
+        <v>0.05268702313514168</v>
+      </c>
+      <c r="G4">
+        <v>-0.08459985873503802</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +806,272 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>-0.03997413351651776</v>
+        <v>0.03652023928285936</v>
       </c>
       <c r="C6">
-        <v>0.03673076418127092</v>
+        <v>0.02749420745194965</v>
       </c>
       <c r="D6">
-        <v>-0.03277466414079139</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>-0.06310935450542045</v>
+      </c>
+      <c r="E6">
+        <v>0.08881674272113277</v>
+      </c>
+      <c r="F6">
+        <v>0.03732155032662386</v>
+      </c>
+      <c r="G6">
+        <v>-0.06034903997716878</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>-0.02683496925796236</v>
+        <v>0.02108625322955003</v>
       </c>
       <c r="C7">
-        <v>0.04028248613508012</v>
+        <v>0.03636432533830837</v>
       </c>
       <c r="D7">
-        <v>0.005193695013688008</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.0398112342163704</v>
+      </c>
+      <c r="E7">
+        <v>0.06849275701917852</v>
+      </c>
+      <c r="F7">
+        <v>0.07726394691154501</v>
+      </c>
+      <c r="G7">
+        <v>-0.09391336820144405</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>-0.006603850642416533</v>
+        <v>0.00575260678448603</v>
       </c>
       <c r="C8">
-        <v>0.04014979588365353</v>
+        <v>0.0342989499241224</v>
       </c>
       <c r="D8">
-        <v>-0.02581411122233053</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.03532232556166286</v>
+      </c>
+      <c r="E8">
+        <v>0.06206593539000801</v>
+      </c>
+      <c r="F8">
+        <v>0.02215447755806889</v>
+      </c>
+      <c r="G8">
+        <v>-0.0364989260059017</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>-0.03899923544981028</v>
+        <v>0.04030179804124539</v>
       </c>
       <c r="C9">
-        <v>0.04714673960707198</v>
+        <v>0.05010139172126998</v>
       </c>
       <c r="D9">
-        <v>-0.01300629002641297</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.04086676531317996</v>
+      </c>
+      <c r="E9">
+        <v>0.07117324015407618</v>
+      </c>
+      <c r="F9">
+        <v>0.06484913509023657</v>
+      </c>
+      <c r="G9">
+        <v>-0.0757956084632028</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>-0.07213334602959509</v>
+        <v>0.09830152631704776</v>
       </c>
       <c r="C10">
-        <v>-0.1926597555958314</v>
+        <v>-0.2018017810031087</v>
       </c>
       <c r="D10">
-        <v>0.003921880447195113</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0.01167378039821452</v>
+      </c>
+      <c r="E10">
+        <v>0.03271953372796429</v>
+      </c>
+      <c r="F10">
+        <v>0.02105422655055072</v>
+      </c>
+      <c r="G10">
+        <v>-0.03439891434388438</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>-0.04323062476173125</v>
+        <v>0.03797507826505504</v>
       </c>
       <c r="C11">
-        <v>0.0500300731756691</v>
+        <v>0.04705390030205965</v>
       </c>
       <c r="D11">
-        <v>-0.01313693856666195</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.03153939608002188</v>
+      </c>
+      <c r="E11">
+        <v>0.02878967177811622</v>
+      </c>
+      <c r="F11">
+        <v>0.04516895051510916</v>
+      </c>
+      <c r="G11">
+        <v>-0.06518169200352787</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>-0.04583377092266997</v>
+        <v>0.03996245672032803</v>
       </c>
       <c r="C12">
-        <v>0.04507053197984746</v>
+        <v>0.04525538477649998</v>
       </c>
       <c r="D12">
-        <v>-0.003207324524758407</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.02708775992111177</v>
+      </c>
+      <c r="E12">
+        <v>0.03579055082844125</v>
+      </c>
+      <c r="F12">
+        <v>0.04704217316609802</v>
+      </c>
+      <c r="G12">
+        <v>-0.06272964991603004</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>-0.01622092916153828</v>
+        <v>0.01406444848149506</v>
       </c>
       <c r="C13">
-        <v>0.05330796124248398</v>
+        <v>0.04214386459908125</v>
       </c>
       <c r="D13">
-        <v>-0.01180081560570279</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.0491761781247072</v>
+      </c>
+      <c r="E13">
+        <v>0.1023095366377061</v>
+      </c>
+      <c r="F13">
+        <v>0.06833210970274092</v>
+      </c>
+      <c r="G13">
+        <v>-0.08943720116793877</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>-0.01033373859522247</v>
+        <v>0.00691005318122242</v>
       </c>
       <c r="C14">
-        <v>0.03605891745020012</v>
+        <v>0.03071014322171299</v>
       </c>
       <c r="D14">
-        <v>0.006551182205766205</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.02659821150471423</v>
+      </c>
+      <c r="E14">
+        <v>0.05246852092473969</v>
+      </c>
+      <c r="F14">
+        <v>0.08579012378101926</v>
+      </c>
+      <c r="G14">
+        <v>-0.07698924921905138</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>5.228482049251778e-06</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>0.005441085364445067</v>
       </c>
       <c r="D15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>-0.008604676176732589</v>
+      </c>
+      <c r="E15">
+        <v>0.004912706328463272</v>
+      </c>
+      <c r="F15">
+        <v>0.007439988724953856</v>
+      </c>
+      <c r="G15">
+        <v>-0.006907971127983707</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>-0.04082482587499357</v>
+        <v>0.03597469596302591</v>
       </c>
       <c r="C16">
-        <v>0.04723260136083863</v>
+        <v>0.04417696128938609</v>
       </c>
       <c r="D16">
-        <v>-0.005463422273820538</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.02600966234700683</v>
+      </c>
+      <c r="E16">
+        <v>0.04217734399349936</v>
+      </c>
+      <c r="F16">
+        <v>0.05606778558871201</v>
+      </c>
+      <c r="G16">
+        <v>-0.05274478234791246</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1082,19 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1105,203 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B19">
-        <v>-0.02737945640831892</v>
+        <v>0.01877759081246835</v>
       </c>
       <c r="C19">
-        <v>0.06001493557320967</v>
+        <v>0.04473735043119005</v>
       </c>
       <c r="D19">
-        <v>-0.09258945242197025</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>-0.09247388940674056</v>
+      </c>
+      <c r="E19">
+        <v>0.1130923054075517</v>
+      </c>
+      <c r="F19">
+        <v>0.06537916152119008</v>
+      </c>
+      <c r="G19">
+        <v>-0.03552422540811599</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>-0.01928278148783473</v>
+        <v>0.01545498708229235</v>
       </c>
       <c r="C20">
-        <v>0.04897606595491977</v>
+        <v>0.03941937188834487</v>
       </c>
       <c r="D20">
-        <v>-0.01072943298953736</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.0355988649442388</v>
+      </c>
+      <c r="E20">
+        <v>0.08048859860311273</v>
+      </c>
+      <c r="F20">
+        <v>0.06155141533044715</v>
+      </c>
+      <c r="G20">
+        <v>-0.06132417265794341</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>-0.01285510621923304</v>
+        <v>0.01126032896460535</v>
       </c>
       <c r="C21">
-        <v>0.05371247324898972</v>
+        <v>0.04379325301090828</v>
       </c>
       <c r="D21">
-        <v>-0.03124224772987768</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.05789814829593441</v>
+      </c>
+      <c r="E21">
+        <v>0.129985791829544</v>
+      </c>
+      <c r="F21">
+        <v>0.09815782109170545</v>
+      </c>
+      <c r="G21">
+        <v>-0.08811937828108102</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B22">
-        <v>0.001879854060908681</v>
+        <v>0.003955806022720468</v>
       </c>
       <c r="C22">
-        <v>0.001230359853104823</v>
+        <v>0.02885485532504836</v>
       </c>
       <c r="D22">
-        <v>-0.006629544007666685</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.05041262538557671</v>
+      </c>
+      <c r="E22">
+        <v>0.05630242613827564</v>
+      </c>
+      <c r="F22">
+        <v>-0.0148134448936382</v>
+      </c>
+      <c r="G22">
+        <v>-0.06376359418685379</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B23">
-        <v>0.001885704178298632</v>
+        <v>0.004045564483945773</v>
       </c>
       <c r="C23">
-        <v>0.001250015083023182</v>
+        <v>0.02893327387743643</v>
       </c>
       <c r="D23">
-        <v>-0.006619373809606859</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.04980898240732885</v>
+      </c>
+      <c r="E23">
+        <v>0.056608354964552</v>
+      </c>
+      <c r="F23">
+        <v>-0.01504932425534827</v>
+      </c>
+      <c r="G23">
+        <v>-0.06379918637582697</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>-0.03761508077948834</v>
+        <v>0.03644679774595599</v>
       </c>
       <c r="C24">
-        <v>0.04938671414449055</v>
+        <v>0.05206649865175151</v>
       </c>
       <c r="D24">
-        <v>-0.007886915075137906</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.02560551239652178</v>
+      </c>
+      <c r="E24">
+        <v>0.04341631594357467</v>
+      </c>
+      <c r="F24">
+        <v>0.0601334919192707</v>
+      </c>
+      <c r="G24">
+        <v>-0.06422547002901298</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>-0.0492885655111084</v>
+        <v>0.04431044035709689</v>
       </c>
       <c r="C25">
-        <v>0.05943636984309312</v>
+        <v>0.05558505911990462</v>
       </c>
       <c r="D25">
-        <v>0.003535578555869176</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.02314910422619079</v>
+      </c>
+      <c r="E25">
+        <v>0.03597326732990912</v>
+      </c>
+      <c r="F25">
+        <v>0.0501166233662686</v>
+      </c>
+      <c r="G25">
+        <v>-0.0755558806602285</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>-0.01816393045715485</v>
+        <v>0.01690082205238067</v>
       </c>
       <c r="C26">
-        <v>0.01838742209281529</v>
+        <v>0.01694297709818785</v>
       </c>
       <c r="D26">
-        <v>-0.002325763746677394</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.02604769020963786</v>
+      </c>
+      <c r="E26">
+        <v>0.05290244681533268</v>
+      </c>
+      <c r="F26">
+        <v>0.06364824132090512</v>
+      </c>
+      <c r="G26">
+        <v>-0.04428069888332095</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,108 +1312,180 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>-0.08657003941757965</v>
+        <v>0.1343570528900396</v>
       </c>
       <c r="C28">
-        <v>-0.252765302762633</v>
+        <v>-0.2567919066861673</v>
       </c>
       <c r="D28">
-        <v>0.004805628968333115</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.0263643035738854</v>
+      </c>
+      <c r="E28">
+        <v>0.05802760263212714</v>
+      </c>
+      <c r="F28">
+        <v>0.03785564916784679</v>
+      </c>
+      <c r="G28">
+        <v>-0.05091305050863555</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>-0.008082972407142041</v>
+        <v>0.006998213588676438</v>
       </c>
       <c r="C29">
-        <v>0.03143086460456108</v>
+        <v>0.02846600385311595</v>
       </c>
       <c r="D29">
-        <v>0.01288476217838483</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.01786592834705273</v>
+      </c>
+      <c r="E29">
+        <v>0.0524299522786024</v>
+      </c>
+      <c r="F29">
+        <v>0.07681296280350156</v>
+      </c>
+      <c r="G29">
+        <v>-0.08158176573354915</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>-0.04739482943655743</v>
+        <v>0.04421422463901225</v>
       </c>
       <c r="C30">
-        <v>0.04963389628776171</v>
+        <v>0.05663974362749945</v>
       </c>
       <c r="D30">
-        <v>-0.07856205915682266</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.1030641785677159</v>
+      </c>
+      <c r="E30">
+        <v>0.07885993969288371</v>
+      </c>
+      <c r="F30">
+        <v>0.0713333065999049</v>
+      </c>
+      <c r="G30">
+        <v>-0.06154184346572236</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>-0.06073050933262573</v>
+        <v>0.0589482161126859</v>
       </c>
       <c r="C31">
-        <v>0.04543495113289429</v>
+        <v>0.06120879656293497</v>
       </c>
       <c r="D31">
-        <v>0.04285784561154554</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>0.01715517806636337</v>
+      </c>
+      <c r="E31">
+        <v>0.07201906497097108</v>
+      </c>
+      <c r="F31">
+        <v>0.03137411484662335</v>
+      </c>
+      <c r="G31">
+        <v>-0.08005096687026692</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>-0.001172562106393535</v>
+        <v>0.006062871600158297</v>
       </c>
       <c r="C32">
-        <v>0.0409514625410826</v>
+        <v>0.03466245572554079</v>
       </c>
       <c r="D32">
-        <v>-0.0565394568378433</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.05547831690609374</v>
+      </c>
+      <c r="E32">
+        <v>0.06149354827439703</v>
+      </c>
+      <c r="F32">
+        <v>0.0713396985814026</v>
+      </c>
+      <c r="G32">
+        <v>-0.06308365536384052</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>-0.03561830155335365</v>
+        <v>0.02873058397234146</v>
       </c>
       <c r="C33">
-        <v>0.05635288076754461</v>
+        <v>0.05168772933129396</v>
       </c>
       <c r="D33">
-        <v>-0.03938293081416094</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.07260082920640779</v>
+      </c>
+      <c r="E33">
+        <v>0.09138952028187301</v>
+      </c>
+      <c r="F33">
+        <v>0.07673001166089045</v>
+      </c>
+      <c r="G33">
+        <v>-0.09230058565133646</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>-0.04638153987519548</v>
+        <v>0.04171763930676622</v>
       </c>
       <c r="C34">
-        <v>0.06355011850592286</v>
+        <v>0.06233309909943753</v>
       </c>
       <c r="D34">
-        <v>-0.01864678929208111</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-0.03757663805359681</v>
+      </c>
+      <c r="E34">
+        <v>0.01783556022830035</v>
+      </c>
+      <c r="F34">
+        <v>0.05888807243750472</v>
+      </c>
+      <c r="G34">
+        <v>-0.06638874526540933</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1181,24 +1496,42 @@
       <c r="D35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>-0.01785017011660086</v>
+        <v>0.01511000359785849</v>
       </c>
       <c r="C36">
-        <v>0.0163655425232832</v>
+        <v>0.0134960575392173</v>
       </c>
       <c r="D36">
-        <v>0.002726684608085923</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.02511584769118865</v>
+      </c>
+      <c r="E36">
+        <v>0.06223567983404113</v>
+      </c>
+      <c r="F36">
+        <v>0.05603746706411181</v>
+      </c>
+      <c r="G36">
+        <v>-0.06158994705757869</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,66 +1542,111 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>-0.0310072937734714</v>
+        <v>0.02425145339275491</v>
       </c>
       <c r="C38">
-        <v>0.03179411039889155</v>
+        <v>0.02429679566071162</v>
       </c>
       <c r="D38">
-        <v>0.01250602597036195</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>-0.02210760762593823</v>
+      </c>
+      <c r="E38">
+        <v>0.05083575825198124</v>
+      </c>
+      <c r="F38">
+        <v>0.04439296665730041</v>
+      </c>
+      <c r="G38">
+        <v>-0.04265088412387941</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>-0.04854440713767244</v>
+        <v>0.04230172282340929</v>
       </c>
       <c r="C39">
-        <v>0.06110192958668455</v>
+        <v>0.06229992649882956</v>
       </c>
       <c r="D39">
-        <v>-0.02040859791513337</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.05144457005544197</v>
+      </c>
+      <c r="E39">
+        <v>0.04991692393252773</v>
+      </c>
+      <c r="F39">
+        <v>0.07869119780585881</v>
+      </c>
+      <c r="G39">
+        <v>-0.056943955051205</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>-0.01106625155926758</v>
+        <v>0.01416935476386113</v>
       </c>
       <c r="C40">
-        <v>0.05263918015358249</v>
+        <v>0.03720434285613362</v>
       </c>
       <c r="D40">
-        <v>-0.01820479142236602</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.03251381662582373</v>
+      </c>
+      <c r="E40">
+        <v>0.09115086116089612</v>
+      </c>
+      <c r="F40">
+        <v>0.04389523108913385</v>
+      </c>
+      <c r="G40">
+        <v>-0.09772702782278803</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>-0.02317936893913402</v>
+        <v>0.01962073748831931</v>
       </c>
       <c r="C41">
-        <v>0.01316090110076324</v>
+        <v>0.009725363633335597</v>
       </c>
       <c r="D41">
-        <v>-0.00211503876931059</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.01717456191989737</v>
+      </c>
+      <c r="E41">
+        <v>0.06360623532306126</v>
+      </c>
+      <c r="F41">
+        <v>0.04940037836118278</v>
+      </c>
+      <c r="G41">
+        <v>-0.04958623193656567</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1657,65 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>-0.04422929990850668</v>
+        <v>0.03136882972362114</v>
       </c>
       <c r="C43">
-        <v>0.03391634718840599</v>
+        <v>0.02508391848288685</v>
       </c>
       <c r="D43">
-        <v>-0.0220893730530392</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.04490349571523931</v>
+      </c>
+      <c r="E43">
+        <v>0.07887421759901078</v>
+      </c>
+      <c r="F43">
+        <v>0.046084473507833</v>
+      </c>
+      <c r="G43">
+        <v>-0.07650835882529286</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>-0.01602300010508516</v>
+        <v>0.01763041535441802</v>
       </c>
       <c r="C44">
-        <v>0.06986981443874907</v>
+        <v>0.04761706013896841</v>
       </c>
       <c r="D44">
-        <v>-0.008710914750288394</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.03351275617158101</v>
+      </c>
+      <c r="E44">
+        <v>0.09055214391329941</v>
+      </c>
+      <c r="F44">
+        <v>0.06757593415117148</v>
+      </c>
+      <c r="G44">
+        <v>-0.04590212960772513</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,52 +1726,88 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>-0.01209841131319466</v>
+        <v>0.0123197374022778</v>
       </c>
       <c r="C46">
-        <v>0.02730788679491943</v>
+        <v>0.02920872415830763</v>
       </c>
       <c r="D46">
-        <v>0.01382931146958804</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.01472153713711848</v>
+      </c>
+      <c r="E46">
+        <v>0.06198691296419662</v>
+      </c>
+      <c r="F46">
+        <v>0.08749733647733478</v>
+      </c>
+      <c r="G46">
+        <v>-0.07921960168027209</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>-0.0905435187274469</v>
+        <v>0.09284273691277141</v>
       </c>
       <c r="C47">
-        <v>0.06673796377370526</v>
+        <v>0.07830344533479836</v>
       </c>
       <c r="D47">
-        <v>0.04343712168745678</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>0.02440446095895969</v>
+      </c>
+      <c r="E47">
+        <v>0.06620389661759561</v>
+      </c>
+      <c r="F47">
+        <v>0.03089368695162404</v>
+      </c>
+      <c r="G47">
+        <v>-0.07561291380351617</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>-0.01982037476043772</v>
+        <v>0.01811267412966837</v>
       </c>
       <c r="C48">
-        <v>0.01388690776249255</v>
+        <v>0.0159787559535545</v>
       </c>
       <c r="D48">
-        <v>0.01598480293723173</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.01237984322414356</v>
+      </c>
+      <c r="E48">
+        <v>0.07365546776829457</v>
+      </c>
+      <c r="F48">
+        <v>0.07108725980203137</v>
+      </c>
+      <c r="G48">
+        <v>-0.0660774659032542</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1377,38 +1818,65 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>-0.08493385489479291</v>
+        <v>0.07251882674742915</v>
       </c>
       <c r="C50">
-        <v>0.08096868044863445</v>
+        <v>0.07426596695193469</v>
       </c>
       <c r="D50">
-        <v>0.04293943842366965</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>0.008779175725978002</v>
+      </c>
+      <c r="E50">
+        <v>0.07771370454981066</v>
+      </c>
+      <c r="F50">
+        <v>0.004777556089189575</v>
+      </c>
+      <c r="G50">
+        <v>-0.09204157956097454</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B51">
-        <v>-0.01810121225093986</v>
+        <v>0.0116728724401828</v>
       </c>
       <c r="C51">
-        <v>0.04885882727790904</v>
+        <v>0.03163362299382278</v>
       </c>
       <c r="D51">
-        <v>-0.03992821762637819</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>-0.05644868377006786</v>
+      </c>
+      <c r="E51">
+        <v>0.0523198998967819</v>
+      </c>
+      <c r="F51">
+        <v>0.0742425616297355</v>
+      </c>
+      <c r="G51">
+        <v>-0.0546905313477939</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,66 +1887,111 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>-0.08470892857358747</v>
+        <v>0.09796917168742229</v>
       </c>
       <c r="C53">
-        <v>0.0771606149811766</v>
+        <v>0.08473750001642866</v>
       </c>
       <c r="D53">
-        <v>0.06472852553775571</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>0.06197057880182406</v>
+      </c>
+      <c r="E53">
+        <v>0.06651897371150652</v>
+      </c>
+      <c r="F53">
+        <v>0.03123938452242392</v>
+      </c>
+      <c r="G53">
+        <v>-0.06463387138737464</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>-0.03753880625685259</v>
+        <v>0.03052383151324729</v>
       </c>
       <c r="C54">
-        <v>0.03436112345617155</v>
+        <v>0.03173321250925287</v>
       </c>
       <c r="D54">
-        <v>0.003575039406370868</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.02608524946354579</v>
+      </c>
+      <c r="E54">
+        <v>0.05862171407094028</v>
+      </c>
+      <c r="F54">
+        <v>0.07868358961565473</v>
+      </c>
+      <c r="G54">
+        <v>-0.08138273083614177</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>-0.08012306797564031</v>
+        <v>0.09023886783363406</v>
       </c>
       <c r="C55">
-        <v>0.05317050090303847</v>
+        <v>0.06718248541436098</v>
       </c>
       <c r="D55">
-        <v>0.0697147363869548</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>0.06098916610180594</v>
+      </c>
+      <c r="E55">
+        <v>0.0445769105712745</v>
+      </c>
+      <c r="F55">
+        <v>0.008426674905238702</v>
+      </c>
+      <c r="G55">
+        <v>-0.05190696506917764</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>-0.154241453135168</v>
+        <v>0.1563185970576008</v>
       </c>
       <c r="C56">
-        <v>0.08226004601278507</v>
+        <v>0.1000536296534552</v>
       </c>
       <c r="D56">
-        <v>0.05985822576512224</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>0.05510166374534834</v>
+      </c>
+      <c r="E56">
+        <v>0.03849197842869895</v>
+      </c>
+      <c r="F56">
+        <v>-0.01391974463112141</v>
+      </c>
+      <c r="G56">
+        <v>-0.02154188707752368</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,66 +2002,111 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>-0.0499160693317047</v>
+        <v>0.03077781821098003</v>
       </c>
       <c r="C58">
-        <v>0.01213921219812525</v>
+        <v>0.02006351673495103</v>
       </c>
       <c r="D58">
-        <v>-0.5934704166523168</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.3816746884100977</v>
+      </c>
+      <c r="E58">
+        <v>0.6188013742397241</v>
+      </c>
+      <c r="F58">
+        <v>-0.4539902881224099</v>
+      </c>
+      <c r="G58">
+        <v>0.4276219691164053</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>-0.1226885998735413</v>
+        <v>0.1386000678875367</v>
       </c>
       <c r="C59">
-        <v>-0.203429741784411</v>
+        <v>-0.1917166906747372</v>
       </c>
       <c r="D59">
-        <v>-0.02770110914498036</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>-0.03082560327260005</v>
+      </c>
+      <c r="E59">
+        <v>0.03118221414638466</v>
+      </c>
+      <c r="F59">
+        <v>0.03129124507826581</v>
+      </c>
+      <c r="G59">
+        <v>0.01090394831365889</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>-0.3050218200605551</v>
+        <v>0.2741947181550419</v>
       </c>
       <c r="C60">
-        <v>0.1103152022931516</v>
+        <v>0.1052074868188414</v>
       </c>
       <c r="D60">
-        <v>-0.1773559599006143</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.2518175575245657</v>
+      </c>
+      <c r="E60">
+        <v>-0.2408819767471496</v>
+      </c>
+      <c r="F60">
+        <v>-0.08327199976056887</v>
+      </c>
+      <c r="G60">
+        <v>-0.04721423153020462</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>-0.04754831564777756</v>
+        <v>0.0438375172986125</v>
       </c>
       <c r="C61">
-        <v>0.05935890419756582</v>
+        <v>0.05760320104251173</v>
       </c>
       <c r="D61">
-        <v>-0.01457468948411889</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.04259981572781007</v>
+      </c>
+      <c r="E61">
+        <v>0.05120228520961621</v>
+      </c>
+      <c r="F61">
+        <v>0.06310156539044444</v>
+      </c>
+      <c r="G61">
+        <v>-0.07216639445774183</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1559,108 +2117,180 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>-0.01912858352058991</v>
+        <v>0.01728549026235961</v>
       </c>
       <c r="C63">
-        <v>0.03397409024890444</v>
+        <v>0.03103259548000595</v>
       </c>
       <c r="D63">
-        <v>0.02061462662570619</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.01718971090604367</v>
+      </c>
+      <c r="E63">
+        <v>0.06343846832453783</v>
+      </c>
+      <c r="F63">
+        <v>0.04654051505461745</v>
+      </c>
+      <c r="G63">
+        <v>-0.07037601054597681</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>-0.05139536755912608</v>
+        <v>0.05725930672898338</v>
       </c>
       <c r="C64">
-        <v>0.04863340517477727</v>
+        <v>0.05853021401234774</v>
       </c>
       <c r="D64">
-        <v>-0.0133397322728808</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.008734912094716604</v>
+      </c>
+      <c r="E64">
+        <v>0.044640787663212</v>
+      </c>
+      <c r="F64">
+        <v>0.0584469387787963</v>
+      </c>
+      <c r="G64">
+        <v>-0.04890013929730192</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>-0.07906370268099701</v>
+        <v>0.06409279253837509</v>
       </c>
       <c r="C65">
-        <v>0.02464775492994348</v>
+        <v>0.02554150289546729</v>
       </c>
       <c r="D65">
-        <v>-0.05821452244746845</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>-0.08684129845936422</v>
+      </c>
+      <c r="E65">
+        <v>0.05618792368178841</v>
+      </c>
+      <c r="F65">
+        <v>0.008126511771011476</v>
+      </c>
+      <c r="G65">
+        <v>-0.0213468324768259</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>-0.06400519379090894</v>
+        <v>0.05482559220996403</v>
       </c>
       <c r="C66">
-        <v>0.08332321263904288</v>
+        <v>0.07949286061335159</v>
       </c>
       <c r="D66">
-        <v>-0.04023724625668053</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.07620756518333835</v>
+      </c>
+      <c r="E66">
+        <v>0.06123106851518599</v>
+      </c>
+      <c r="F66">
+        <v>0.07034065236691728</v>
+      </c>
+      <c r="G66">
+        <v>-0.07091958919615231</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>-0.05212467272041905</v>
+        <v>0.04523314919739709</v>
       </c>
       <c r="C67">
-        <v>0.03150425466943885</v>
+        <v>0.02874310142345432</v>
       </c>
       <c r="D67">
-        <v>0.02163709338472398</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.004907333934740102</v>
+      </c>
+      <c r="E67">
+        <v>0.02700626808676893</v>
+      </c>
+      <c r="F67">
+        <v>0.03017043088933628</v>
+      </c>
+      <c r="G67">
+        <v>-0.03437937776234155</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>-0.1211951403931341</v>
+        <v>0.14593461758161</v>
       </c>
       <c r="C68">
-        <v>-0.2828819811384552</v>
+        <v>-0.2459103757767055</v>
       </c>
       <c r="D68">
-        <v>0.009263180300790043</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>0.01480636460350797</v>
+      </c>
+      <c r="E68">
+        <v>0.0405369967607589</v>
+      </c>
+      <c r="F68">
+        <v>0.01225167070033494</v>
+      </c>
+      <c r="G68">
+        <v>-0.02835685357067619</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>-0.0938001403611216</v>
+        <v>0.08877873445267757</v>
       </c>
       <c r="C69">
-        <v>0.0707495718469523</v>
+        <v>0.08972297374121101</v>
       </c>
       <c r="D69">
-        <v>0.05133032498947621</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>0.01522973805423264</v>
+      </c>
+      <c r="E69">
+        <v>0.05764061033460357</v>
+      </c>
+      <c r="F69">
+        <v>0.0609794318106617</v>
+      </c>
+      <c r="G69">
+        <v>-0.06956104013256308</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,360 +2301,594 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>-0.1125748395106204</v>
+        <v>0.1401594168182286</v>
       </c>
       <c r="C71">
-        <v>-0.2594457647569954</v>
+        <v>-0.2442085168843008</v>
       </c>
       <c r="D71">
-        <v>-0.01003295250930965</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>-0.002923257497053082</v>
+      </c>
+      <c r="E71">
+        <v>0.05535880614813267</v>
+      </c>
+      <c r="F71">
+        <v>0.01652867690145791</v>
+      </c>
+      <c r="G71">
+        <v>-0.06302707189468472</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>-0.0976147414229518</v>
+        <v>0.1044047580929294</v>
       </c>
       <c r="C72">
-        <v>0.04283643887034244</v>
+        <v>0.04875604472831114</v>
       </c>
       <c r="D72">
-        <v>-0.00443139884104917</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>-0.03558586039895172</v>
+      </c>
+      <c r="E72">
+        <v>0.02015754917179188</v>
+      </c>
+      <c r="F72">
+        <v>0.03686786811618453</v>
+      </c>
+      <c r="G72">
+        <v>-0.09174694859445011</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>-0.3925885737912263</v>
+        <v>0.3313221412928055</v>
       </c>
       <c r="C73">
-        <v>0.04761210928095844</v>
+        <v>0.06913758914906647</v>
       </c>
       <c r="D73">
-        <v>-0.4465349399764681</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.5090114673144883</v>
+      </c>
+      <c r="E73">
+        <v>-0.4571134206833614</v>
+      </c>
+      <c r="F73">
+        <v>-0.2384482917486826</v>
+      </c>
+      <c r="G73">
+        <v>-0.03497369319874034</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>-0.108745145294592</v>
+        <v>0.1131521726758474</v>
       </c>
       <c r="C74">
-        <v>0.09286087042302156</v>
+        <v>0.09194773484328789</v>
       </c>
       <c r="D74">
-        <v>0.04609881954129084</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>0.04789712648626979</v>
+      </c>
+      <c r="E74">
+        <v>0.05787613698236183</v>
+      </c>
+      <c r="F74">
+        <v>-0.004426418957978041</v>
+      </c>
+      <c r="G74">
+        <v>-0.04714870015730942</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>-0.2580208852865004</v>
+        <v>0.2616718045186901</v>
       </c>
       <c r="C75">
-        <v>0.08589557895842301</v>
+        <v>0.119701884007525</v>
       </c>
       <c r="D75">
-        <v>0.1395136076026136</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>0.1534918485327872</v>
+      </c>
+      <c r="E75">
+        <v>0.02896937669188171</v>
+      </c>
+      <c r="F75">
+        <v>-0.06148310598312889</v>
+      </c>
+      <c r="G75">
+        <v>0.05151516655405458</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B76">
-        <v>-0.1171180544490279</v>
+        <v>0.1305148897396582</v>
       </c>
       <c r="C76">
-        <v>0.07906492027835317</v>
+        <v>0.09029594165405599</v>
       </c>
       <c r="D76">
-        <v>0.07358909369199965</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>0.0810064669029192</v>
+      </c>
+      <c r="E76">
+        <v>0.07329744720051688</v>
+      </c>
+      <c r="F76">
+        <v>0.01781818465914424</v>
+      </c>
+      <c r="G76">
+        <v>-0.0316691884807583</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>-0.08323592516127525</v>
+        <v>0.06787880822807135</v>
       </c>
       <c r="C77">
-        <v>0.04238082422574539</v>
+        <v>0.05818315706029623</v>
       </c>
       <c r="D77">
-        <v>-0.05540151594220722</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.05834768746710566</v>
+      </c>
+      <c r="E77">
+        <v>0.0961439922444722</v>
+      </c>
+      <c r="F77">
+        <v>0.1749642947768019</v>
+      </c>
+      <c r="G77">
+        <v>0.1160061928021425</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>-0.05003547230179582</v>
+        <v>0.04806156401895674</v>
       </c>
       <c r="C78">
-        <v>0.0386228165340323</v>
+        <v>0.05148914639076492</v>
       </c>
       <c r="D78">
-        <v>-0.02868952111470968</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.06390576232622223</v>
+      </c>
+      <c r="E78">
+        <v>0.06090568441788072</v>
+      </c>
+      <c r="F78">
+        <v>0.06440440935667845</v>
+      </c>
+      <c r="G78">
+        <v>-0.05980668927837915</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B79">
-        <v>-0.0001458173980805087</v>
+        <v>0.03331500342968311</v>
       </c>
       <c r="C79">
-        <v>0.0004966193407523465</v>
+        <v>0.0472402540170852</v>
       </c>
       <c r="D79">
-        <v>-0.001700180190341587</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>0.08332804404228446</v>
+      </c>
+      <c r="E79">
+        <v>0.0666264376014081</v>
+      </c>
+      <c r="F79">
+        <v>-0.02066593589515883</v>
+      </c>
+      <c r="G79">
+        <v>-0.03350834693817322</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>-0.03933458369071233</v>
+        <v>0.0301828407113588</v>
       </c>
       <c r="C80">
-        <v>0.04973330432621526</v>
+        <v>0.05045538703577891</v>
       </c>
       <c r="D80">
-        <v>-0.02915124674299721</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-0.03965498478805985</v>
+      </c>
+      <c r="E80">
+        <v>0.01568903009601332</v>
+      </c>
+      <c r="F80">
+        <v>0.05686644473836751</v>
+      </c>
+      <c r="G80">
+        <v>0.002314197396933616</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>-0.1433902331234173</v>
+        <v>0.1429029079631547</v>
       </c>
       <c r="C81">
-        <v>0.07208774401136006</v>
+        <v>0.09122714740379374</v>
       </c>
       <c r="D81">
-        <v>0.1060010544791593</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>0.1246473988339127</v>
+      </c>
+      <c r="E81">
+        <v>0.07172540723154064</v>
+      </c>
+      <c r="F81">
+        <v>-0.02612470647380749</v>
+      </c>
+      <c r="G81">
+        <v>0.01313927967076117</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>-0.1931562779721803</v>
+        <v>0.2270893254600351</v>
       </c>
       <c r="C82">
-        <v>0.0868719157093035</v>
+        <v>0.1503461314871908</v>
       </c>
       <c r="D82">
-        <v>0.1971033070673913</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>0.2514287511181972</v>
+      </c>
+      <c r="E82">
+        <v>-0.03648041482963197</v>
+      </c>
+      <c r="F82">
+        <v>0.04209797982962243</v>
+      </c>
+      <c r="G82">
+        <v>-0.05574397717421328</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>-0.04204674350635911</v>
+        <v>0.02823081300816604</v>
       </c>
       <c r="C83">
-        <v>0.02995310999095581</v>
+        <v>0.04404747219966598</v>
       </c>
       <c r="D83">
-        <v>-0.03607638162302218</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.03116383341526313</v>
+      </c>
+      <c r="E83">
+        <v>0.02464494653180935</v>
+      </c>
+      <c r="F83">
+        <v>0.03044916275537909</v>
+      </c>
+      <c r="G83">
+        <v>-0.003440936095769795</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B84">
-        <v>0</v>
+        <v>-0.0002860936165475078</v>
       </c>
       <c r="C84">
-        <v>0</v>
+        <v>-0.00055794948909771</v>
       </c>
       <c r="D84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>0.0006148282401794483</v>
+      </c>
+      <c r="E84">
+        <v>0.002923755245983132</v>
+      </c>
+      <c r="F84">
+        <v>-0.001146062391588962</v>
+      </c>
+      <c r="G84">
+        <v>-0.001043662236199228</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>-0.2205272544884554</v>
+        <v>0.2042774415858301</v>
       </c>
       <c r="C85">
-        <v>0.09022012182137068</v>
+        <v>0.1085393106527621</v>
       </c>
       <c r="D85">
-        <v>0.1638438245318428</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>0.1312515481477964</v>
+      </c>
+      <c r="E85">
+        <v>-0.006999081756057084</v>
+      </c>
+      <c r="F85">
+        <v>-0.1055187678184166</v>
+      </c>
+      <c r="G85">
+        <v>-0.005869055645654088</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>-0.009680690750880303</v>
+        <v>0.01287831974795898</v>
       </c>
       <c r="C86">
-        <v>0.02902506981234176</v>
+        <v>0.01867921755440201</v>
       </c>
       <c r="D86">
-        <v>-0.04521328289044658</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.065575188013618</v>
+      </c>
+      <c r="E86">
+        <v>0.07881495894596156</v>
+      </c>
+      <c r="F86">
+        <v>0.08967993592934316</v>
+      </c>
+      <c r="G86">
+        <v>-0.06639634073858292</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>-0.02659127688672016</v>
+        <v>0.02708298787045779</v>
       </c>
       <c r="C87">
-        <v>0.002674017286910871</v>
+        <v>0.01228779912429464</v>
       </c>
       <c r="D87">
-        <v>-0.08774462831901707</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.08600478686315927</v>
+      </c>
+      <c r="E87">
+        <v>0.1275183985097451</v>
+      </c>
+      <c r="F87">
+        <v>0.07862414391693504</v>
+      </c>
+      <c r="G87">
+        <v>0.0009977529758299073</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>-0.1102189167021649</v>
+        <v>0.09402773063069612</v>
       </c>
       <c r="C88">
-        <v>0.07736972172305219</v>
+        <v>0.06406132187811295</v>
       </c>
       <c r="D88">
-        <v>0.02255425975586786</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.01105286475762335</v>
+      </c>
+      <c r="E88">
+        <v>0.05188323179273113</v>
+      </c>
+      <c r="F88">
+        <v>0.05277292072554913</v>
+      </c>
+      <c r="G88">
+        <v>-0.03169999384798705</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>-0.1749325000901276</v>
+        <v>0.2122006592775673</v>
       </c>
       <c r="C89">
-        <v>-0.3836800803588198</v>
+        <v>-0.3854911477809697</v>
       </c>
       <c r="D89">
-        <v>0.0260861945350234</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>0.013822116587066</v>
+      </c>
+      <c r="E89">
+        <v>0.07003502973551193</v>
+      </c>
+      <c r="F89">
+        <v>0.08780117035110289</v>
+      </c>
+      <c r="G89">
+        <v>0.006759609006992632</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>-0.1684465136261382</v>
+        <v>0.1933296845606545</v>
       </c>
       <c r="C90">
-        <v>-0.3357418665278568</v>
+        <v>-0.313232626417857</v>
       </c>
       <c r="D90">
-        <v>0.04004100732039205</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>0.02033539000770213</v>
+      </c>
+      <c r="E90">
+        <v>0.05667012625849266</v>
+      </c>
+      <c r="F90">
+        <v>0.03093370644718188</v>
+      </c>
+      <c r="G90">
+        <v>-0.01090555851962559</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>-0.1902416798801812</v>
+        <v>0.1880997207983543</v>
       </c>
       <c r="C91">
-        <v>0.1224402686471452</v>
+        <v>0.1389003771373805</v>
       </c>
       <c r="D91">
-        <v>0.1318548706776058</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.1312171589201356</v>
+      </c>
+      <c r="E91">
+        <v>0.04846424250501453</v>
+      </c>
+      <c r="F91">
+        <v>-0.01575668037279856</v>
+      </c>
+      <c r="G91">
+        <v>0.005246394976794999</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>-0.1582932820297868</v>
+        <v>0.1779735897217616</v>
       </c>
       <c r="C92">
-        <v>-0.2959783471263565</v>
+        <v>-0.298810323505325</v>
       </c>
       <c r="D92">
-        <v>0.01920612590926857</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>0.01484315984746401</v>
+      </c>
+      <c r="E92">
+        <v>0.06096460094299012</v>
+      </c>
+      <c r="F92">
+        <v>0.05826795985857182</v>
+      </c>
+      <c r="G92">
+        <v>-0.02543581277097094</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>-0.1879759017158312</v>
+        <v>0.2142070240920119</v>
       </c>
       <c r="C93">
-        <v>-0.3413840799062699</v>
+        <v>-0.3225456466430561</v>
       </c>
       <c r="D93">
-        <v>0.04189334079151763</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.01960654715263341</v>
+      </c>
+      <c r="E93">
+        <v>0.038026037199219</v>
+      </c>
+      <c r="F93">
+        <v>0.005806079520730692</v>
+      </c>
+      <c r="G93">
+        <v>-0.04167498240553823</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>-0.3438023023526344</v>
+        <v>0.3454952165830704</v>
       </c>
       <c r="C94">
-        <v>0.1255438361733752</v>
+        <v>0.1712672096146299</v>
       </c>
       <c r="D94">
-        <v>0.3709980956072912</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>0.4019516559240474</v>
+      </c>
+      <c r="E94">
+        <v>0.0005763186519203681</v>
+      </c>
+      <c r="F94">
+        <v>-0.1594756058611728</v>
+      </c>
+      <c r="G94">
+        <v>0.3778807560376388</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>-0.1251223516679295</v>
+        <v>0.09203966529949473</v>
       </c>
       <c r="C95">
-        <v>0.04613971494547132</v>
+        <v>0.05523606114973765</v>
       </c>
       <c r="D95">
-        <v>-0.2066969104978598</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.1961875469033601</v>
+      </c>
+      <c r="E95">
+        <v>-0.1272964521374737</v>
+      </c>
+      <c r="F95">
+        <v>0.660168525799553</v>
+      </c>
+      <c r="G95">
+        <v>0.6236624638859554</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,10 +2899,19 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2049,24 +2922,42 @@
       <c r="D97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:4">
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>-0.1933096642454749</v>
+        <v>0.1869833881849021</v>
       </c>
       <c r="C98">
-        <v>0.03268455110458266</v>
+        <v>0.05076946127258503</v>
       </c>
       <c r="D98">
-        <v>-0.1623432179794736</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>-0.2047397144996109</v>
+      </c>
+      <c r="E98">
+        <v>-0.1433048691934794</v>
+      </c>
+      <c r="F98">
+        <v>-0.07929259975182133</v>
+      </c>
+      <c r="G98">
+        <v>-0.08319640818240635</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +2968,19 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +2991,65 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>-0.007861957115656033</v>
+        <v>0.006994568871747654</v>
       </c>
       <c r="C101">
-        <v>0.03146217630296345</v>
+        <v>0.02801310135517366</v>
       </c>
       <c r="D101">
-        <v>0.01264033661876618</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.01777250507117085</v>
+      </c>
+      <c r="E101">
+        <v>0.0530959457472797</v>
+      </c>
+      <c r="F101">
+        <v>0.07752758956606222</v>
+      </c>
+      <c r="G101">
+        <v>-0.08134743684643039</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B102">
-        <v>-0.1229474302363048</v>
+        <v>0.1264253557181963</v>
       </c>
       <c r="C102">
-        <v>0.06628675963349065</v>
+        <v>0.09746174615233555</v>
       </c>
       <c r="D102">
-        <v>0.05001592662356402</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>0.0591804586044924</v>
+      </c>
+      <c r="E102">
+        <v>-0.01255454508401518</v>
+      </c>
+      <c r="F102">
+        <v>0.01854862508938132</v>
+      </c>
+      <c r="G102">
+        <v>0.01267948922374687</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3060,19 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3081,15 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
         <v>0</v>
       </c>
     </row>
